--- a/analyses/tables/topography.xlsx
+++ b/analyses/tables/topography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Desktop/work/Smith Lab/mdi_pitchpine-master/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{68E99B83-72B4-7E44-8BB7-3A75B58ACC53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00188FF-00B1-B44F-8FA6-3D4C012A435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440"/>
+    <workbookView xWindow="40" yWindow="9760" windowWidth="27640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topography" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Elevation</t>
   </si>
@@ -31,18 +31,6 @@
     <t>Aspect</t>
   </si>
   <si>
-    <t>WOND</t>
-  </si>
-  <si>
-    <t>CADCLIFFS</t>
-  </si>
-  <si>
-    <t>STSAUV</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -50,12 +38,48 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>GOR</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Ledge</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -893,24 +917,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -921,59 +948,68 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>44.237123400000002</v>
+        <v>44.327796733333301</v>
       </c>
       <c r="D2" s="1">
-        <v>-68.316051799999997</v>
+        <v>-68.185402866666706</v>
       </c>
       <c r="E2" s="1">
-        <v>53.4</v>
+        <v>100.866666666667</v>
       </c>
       <c r="F2" s="1">
-        <v>3.7333333333333298</v>
+        <v>31.866666666666699</v>
       </c>
       <c r="G2" s="1">
-        <v>208.066666666667</v>
+        <v>151.46666666666701</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>44.327796733333301</v>
+        <v>44.3330482</v>
       </c>
       <c r="D3" s="1">
-        <v>-68.185402866666706</v>
+        <v>-68.223588000000007</v>
       </c>
       <c r="E3" s="1">
-        <v>100.866666666667</v>
+        <v>930.73333333333301</v>
       </c>
       <c r="F3" s="1">
-        <v>31.866666666666699</v>
+        <v>9.4</v>
       </c>
       <c r="G3" s="1">
-        <v>151.46666666666701</v>
+        <v>138.13333333333301</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>44.310862800000002</v>
@@ -990,28 +1026,34 @@
       <c r="G4" s="1">
         <v>262.60000000000002</v>
       </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>44.3330482</v>
+        <v>44.237123400000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-68.223588000000007</v>
+        <v>-68.316051799999997</v>
       </c>
       <c r="E5" s="1">
-        <v>930.73333333333301</v>
+        <v>53.4</v>
       </c>
       <c r="F5" s="1">
-        <v>9.4</v>
+        <v>3.7333333333333298</v>
       </c>
       <c r="G5" s="1">
-        <v>138.13333333333301</v>
+        <v>208.066666666667</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/tables/topography.xlsx
+++ b/analyses/tables/topography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00188FF-00B1-B44F-8FA6-3D4C012A435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88DE93B3-C518-494D-8A29-7A50CEA3BB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="9760" windowWidth="27640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2180" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="topography" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
   <si>
     <t>Elevation</t>
   </si>
@@ -29,15 +38,6 @@
   </si>
   <si>
     <t>Aspect</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
   </si>
   <si>
     <t>GOR</t>
@@ -51,37 +51,14 @@
   <si>
     <t>WON</t>
   </si>
-  <si>
-    <t>Flat</t>
-  </si>
-  <si>
-    <t>Ledge</t>
-  </si>
-  <si>
-    <t>Cliff</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Compass</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -560,9 +537,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,47 +895,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H5"/>
+      <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>44.327796733333301</v>
@@ -965,25 +937,22 @@
       <c r="D2" s="1">
         <v>-68.185402866666706</v>
       </c>
-      <c r="E2" s="1">
-        <v>100.866666666667</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2">
+        <v>33.179824561333298</v>
+      </c>
+      <c r="F2" s="2">
         <v>31.866666666666699</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>151.46666666666701</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>44.3330482</v>
@@ -991,25 +960,22 @@
       <c r="D3" s="1">
         <v>-68.223588000000007</v>
       </c>
-      <c r="E3" s="1">
-        <v>930.73333333333301</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
+        <v>306.1622807</v>
+      </c>
+      <c r="F3" s="2">
         <v>9.4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>138.13333333333301</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>44.310862800000002</v>
@@ -1017,25 +983,22 @@
       <c r="D4" s="1">
         <v>-68.326203933333304</v>
       </c>
-      <c r="E4" s="1">
-        <v>597.13333333333298</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>196.42543858666701</v>
+      </c>
+      <c r="F4" s="2">
         <v>13.3333333333333</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>262.60000000000002</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>44.237123400000002</v>
@@ -1043,17 +1006,14 @@
       <c r="D5" s="1">
         <v>-68.316051799999997</v>
       </c>
-      <c r="E5" s="1">
-        <v>53.4</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
+        <v>17.565789474666701</v>
+      </c>
+      <c r="F5" s="2">
         <v>3.7333333333333298</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>208.066666666667</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
